--- a/Base/Teams/Dolphins/Team Data.xlsx
+++ b/Base/Teams/Dolphins/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6</t>
-  </si>
-  <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17</t>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
+  </si>
+  <si>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31</t>
   </si>
   <si>
-    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16</t>
-  </si>
-  <si>
-    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46</t>
-  </si>
-  <si>
-    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0</t>
+    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17</t>
+  </si>
+  <si>
+    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46</t>
+  </si>
+  <si>
+    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -689,16 +689,16 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="M2">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="N2">
         <v>29</v>
@@ -710,7 +710,7 @@
         <v>17</v>
       </c>
       <c r="Q2">
-        <v>901</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="G3">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J3">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>345</v>
       </c>
       <c r="N3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -952,16 +952,16 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2">
         <v>38</v>
@@ -970,22 +970,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>511</v>
+        <v>553</v>
       </c>
       <c r="M2">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2">
-        <v>873</v>
+        <v>936</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>340</v>
+        <v>356</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F3">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <v>62</v>
       </c>
       <c r="H3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>326</v>
       </c>
       <c r="N3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1245,13 +1245,13 @@
         <v>50</v>
       </c>
       <c r="L2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -1368,7 +1368,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>15</v>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">

--- a/Base/Teams/Dolphins/Team Data.xlsx
+++ b/Base/Teams/Dolphins/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17</t>
-  </si>
-  <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11</t>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1</t>
+  </si>
+  <si>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -170,13 +170,13 @@
     <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17</t>
   </si>
   <si>
-    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46</t>
-  </si>
-  <si>
-    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0</t>
+    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56</t>
+  </si>
+  <si>
+    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,19 +668,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -689,28 +689,28 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>548</v>
+        <v>575</v>
       </c>
       <c r="M2">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="P2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q2">
-        <v>971</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,16 +721,16 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="G3">
         <v>87</v>
@@ -739,10 +739,10 @@
         <v>47</v>
       </c>
       <c r="I3">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="J3">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>345</v>
       </c>
       <c r="N3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,49 +943,49 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>13</v>
       </c>
       <c r="F2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="M2">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="N2">
         <v>29</v>
       </c>
       <c r="O2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P2">
         <v>21</v>
       </c>
       <c r="Q2">
-        <v>936</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,28 +993,28 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F3">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="G3">
+        <v>64</v>
+      </c>
+      <c r="H3">
         <v>62</v>
       </c>
-      <c r="H3">
-        <v>59</v>
-      </c>
       <c r="I3">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J3">
         <v>94</v>
@@ -1029,7 +1029,7 @@
         <v>326</v>
       </c>
       <c r="N3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1239,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2">
         <v>40</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,16 +1345,16 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>20</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Dolphins/Team Data.xlsx
+++ b/Base/Teams/Dolphins/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1</t>
-  </si>
-  <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10</t>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 2 2 1 4 2 2 4 3 4 4 2 9 4 -3 1 10 6 2 0 4 4 1 5 3 4 0 0 5 -1 2</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 4 4 5 -1 18 7 11 6 7 6 10 9 17 13 40 24 1 5 12</t>
+  </si>
+  <si>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 3 4 3 1 -1 7 7 4 4 0 2 2 10 3 1 2 19 0 2 1 2 4</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10 4 17 8 11 12 4 14 -5 6 4 4 56</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67</t>
-  </si>
-  <si>
-    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31</t>
-  </si>
-  <si>
-    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17</t>
-  </si>
-  <si>
-    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56</t>
-  </si>
-  <si>
-    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5</t>
+    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67 71</t>
+  </si>
+  <si>
+    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31 26</t>
+  </si>
+  <si>
+    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17 23</t>
+  </si>
+  <si>
+    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56 41 37 47 43 42 45</t>
+  </si>
+  <si>
+    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12 10 0 0 0 0 17</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5 -1 9 0 0 0 0 10</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,28 +668,28 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>18</v>
       </c>
       <c r="F2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>378</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2">
         <v>28</v>
@@ -718,40 +718,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G3">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H3">
         <v>47</v>
       </c>
       <c r="I3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J3">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="M3">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>867</v>
+        <v>931</v>
       </c>
     </row>
   </sheetData>
@@ -943,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="D2">
         <v>19</v>
@@ -952,19 +952,19 @@
         <v>13</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>343</v>
       </c>
       <c r="N2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="O2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2">
         <v>991</v>
@@ -996,37 +996,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="G3">
         <v>64</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>502</v>
+        <v>522</v>
       </c>
       <c r="M3">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="N3">
         <v>50</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>886</v>
+        <v>937</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1239,19 +1239,19 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Dolphins/Team Data.xlsx
+++ b/Base/Teams/Dolphins/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 2 2 1 4 2 2 4 3 4 4 2 9 4 -3 1 10 6 2 0 4 4 1 5 3 4 0 0 5 -1 2</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 4 4 5 -1 18 7 11 6 7 6 10 9 17 13 40 24 1 5 12</t>
-  </si>
-  <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 3 4 3 1 -1 7 7 4 4 0 2 2 10 3 1 2 19 0 2 1 2 4</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10 4 17 8 11 12 4 14 -5 6 4 4 56</t>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 2 2 1 4 2 2 4 3 4 4 2 9 4 -3 1 10 6 2 0 4 4 1 5 3 4 0 0 5 -1 2 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 4 4 5 -1 18 7 11 6 7 6 10 9 17 13 40 24 1 5 12 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8</t>
+  </si>
+  <si>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 3 4 3 1 -1 7 7 4 4 0 2 2 10 3 1 2 19 0 2 1 2 4 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10 4 17 8 11 12 4 14 -5 6 4 4 56 25 2 4 1 5 5 16 3 7 52 6 3 15</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67 71</t>
-  </si>
-  <si>
-    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31 26</t>
-  </si>
-  <si>
-    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17 23</t>
-  </si>
-  <si>
-    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56 41 37 47 43 42 45</t>
-  </si>
-  <si>
-    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12 10 0 0 0 0 17</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5 -1 9 0 0 0 0 10</t>
+    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67 71 64</t>
+  </si>
+  <si>
+    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31 26 24</t>
+  </si>
+  <si>
+    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17 23 16 18</t>
+  </si>
+  <si>
+    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56 41 37 47 43 42 45 37 36 42 32</t>
+  </si>
+  <si>
+    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12 10 0 0 0 0 17 9 8 11 0</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5 -1 9 0 0 0 0 10 15 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,10 +665,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -677,19 +677,19 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>378</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="O2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2">
         <v>1042</v>
@@ -721,37 +721,37 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="D3">
         <v>13</v>
       </c>
       <c r="E3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F3">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="G3">
         <v>90</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>538</v>
+        <v>577</v>
       </c>
       <c r="M3">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="N3">
         <v>36</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>931</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="F2">
+        <v>116</v>
+      </c>
+      <c r="G2">
+        <v>90</v>
+      </c>
+      <c r="H2">
         <v>13</v>
-      </c>
-      <c r="F2">
-        <v>107</v>
-      </c>
-      <c r="G2">
-        <v>89</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
       </c>
       <c r="I2">
         <v>12</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>343</v>
       </c>
       <c r="N2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q2">
         <v>991</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>63</v>
       </c>
       <c r="I3">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="M3">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="N3">
         <v>50</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>937</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -1215,13 +1215,13 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
@@ -1239,10 +1239,10 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2">
         <v>41</v>
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="N2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2">
         <v>14</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>10</v>
       </c>
       <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
         <v>17</v>
-      </c>
-      <c r="E3">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Dolphins/Team Data.xlsx
+++ b/Base/Teams/Dolphins/Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 2 2 1 4 2 2 4 3 4 4 2 9 4 -3 1 10 6 2 0 4 4 1 5 3 4 0 0 5 -1 2 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3</t>
-  </si>
-  <si>
-    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 4 4 5 -1 18 7 11 6 7 6 10 9 17 13 40 24 1 5 12 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8</t>
-  </si>
-  <si>
-    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 3 4 3 1 -1 7 7 4 4 0 2 2 10 3 1 2 19 0 2 1 2 4 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39</t>
-  </si>
-  <si>
-    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10 4 17 8 11 12 4 14 -5 6 4 4 56 25 2 4 1 5 5 16 3 7 52 6 3 15</t>
+    <t>4 2 2 1 -3 7 3 5 6 0 0 8 10 2 5 4 -1 1 1 1 12 5 4 1 3 1 8 9 3 14 9 2 1 0 11 0 0 4 5 3 9 2 5 2 7 9 5 6 7 2 4 2 0 -2 13 29 1 7 0 2 3 5 -5 6 1 -1 1 1 0 14 4 3 0 1 1 1 1 15 3 2 4 4 0 7 3 5 2 11 7 4 11 -1 -1 3 10 9 5 7 -2 2 10 -1 6 3 4 1 -2 2 17 5 -1 4 4 3 0 12 2 5 4 21 2 12 1 1 0 0 2 9 0 0 5 -2 15 11 11 5 1 9 1 1 4 5 2 7 2 -1 4 5 9 -1 3 4 1 4 5 3 4 3 2 3 4 6 6 1 0 0 3 -5 4 5 1 1 0 3 6 2 1 6 0 2 -2 4 2 5 2 7 4 19 3 8 -1 -2 3 4 -2 3 1 6 17 8 1 1 1 2 3 18 1 8 2 0 6 3 0 6 3 0 2 6 18 0 1 11 2 5 3 -1 3 17 -1 -3 -1 4 4 7 2 1 4 3 -3 3 2 14 2 0 4 3 1 5 4 4 3 3 4 -2 12 2 5 -3 9 3 16 8 4 1 2 4 12 3 1 8 5 3 3 4 2 4 11 4 0 1 1 3 5 0 4 0 0 14 1 4 2 6 1 26 7 1 4 1 7 7 1 -2 6 2 2 2 2 2 3 5 2 3 7 2 9 3 5 2 1 9 1 5 6 5 4 6 7 2 10 4 8 4 6 3 4 5 4 9 14 2 7 5 1 31 8 3 2 0 12 3 4 3 13 24 9 4 2 1 0 1 2 6 -4 5 0 14 8 3 -1 8 8 9 -1 -1 24 1 2 1 7 8 2 4 5 0 3 5 1 -1 4 0 3 2 -7 5 1 7 16 1 3 2 2 16 6 2 15 4 -1 8 3 -1 -1 2 2 1 15 8 4 -3 5 2 5 4 2 6 18 -1 2 -1 6 2 1 3 2 8 3 4 -2 6 1 12 1 6 5 2 2 3 24 4 1 6 0 1 14 10 1 3 5 3 19 4 4 0 -1 0 1 15 4 2 4 2 0 6 3 -2 4 -1 4 3 2 0 0 4 2 4 0 3 1 13 7 4 5 -1 3 7 4 5 2 16 4 3 4 1 8 1 7 5 0 1 3 4 4 3 3 6 5 2 8 3 7 5 2 2 3 8 6 0 16 3 6 2 3 9 5 3 9 3 10 -5 4 1 7 5 5 5 -3 2 2 5 3 -2 12 3 1 1 0 2 6 2 0 3 1 7 0 1 2 4 4 6 -2 6 0 5 2 0 -2 7 2 2 2 5 -5 0 4 3 0 -1 2 3 1 -1 5 4 2 4 2 1 -1 4 1 14 0 11 0 1 7 2 1 14 3 -1 0 1 -3 5 0 4 1 2 7 3 2 20 9 9 0 -3 6 4 0 2 2 4 3 4 6 3 3 6 0 0 3 2 6 3 1 5 0 2 2 3 2 5 -3 3 0 2 16 0 2 4 4 3 3 8 7 2 0 8 2 1 9 2 1 1 0 2 2 4 11 2 0 6 1 6 2 3 0 2 3 4 1 3 4 4 2 3 2 2 3 4 0 0 4 10 1 1 12 4 5 0 8 2 5 4 1 6 6 9 3 7 2 0 11 3 2 0 3 24 8 30 4 12 1 4 2 2 1 4 2 2 4 3 4 4 2 9 4 -3 1 10 6 2 0 4 4 1 5 3 4 0 0 5 -1 2 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3 4 2 5 4 3 0 7 5 2 1 10 6 5 3 1 3 3 11 9 1 27 7 3 5 1 3 1 4 3 2 2 23 4 -1 5 2 -2 4 11 3 2 0</t>
+  </si>
+  <si>
+    <t>3 12 6 13 14 -1 18 20 15 -1 9 7 3 14 5 3 18 8 4 21 17 2 13 13 26 2 4 14 2 -1 7 27 15 15 15 12 20 14 23 9 0 12 11 3 10 8 8 19 3 13 2 12 8 7 20 19 3 11 8 17 11 4 8 15 4 3 3 16 8 3 0 9 5 9 18 15 15 26 11 17 9 3 12 21 6 5 12 1 4 17 4 9 -4 16 9 11 10 18 18 8 47 15 3 28 6 6 8 12 19 2 22 70 4 1 8 4 7 6 15 31 32 4 6 8 6 4 10 10 16 3 -3 3 43 4 7 30 15 18 4 7 2 7 8 0 8 15 3 9 7 10 7 8 10 8 6 5 11 17 19 35 3 9 4 16 16 17 9 14 5 17 6 11 19 9 23 13 15 3 23 8 7 13 17 8 19 12 5 2 1 3 13 8 4 9 3 6 10 8 13 6 7 0 25 11 15 1 8 6 9 21 12 2 2 12 12 8 5 22 5 11 7 6 5 19 17 13 19 13 4 25 10 7 7 6 15 7 4 8 6 15 8 16 20 7 9 2 11 5 5 17 14 35 5 22 11 8 20 4 8 9 9 18 16 14 18 7 7 10 14 2 12 16 9 10 10 -1 11 11 13 5 23 10 29 2 6 9 9 18 4 22 3 7 8 15 3 15 3 14 5 10 5 8 4 8 6 1 10 4 7 1 1 13 5 5 6 2 3 5 4 5 6 14 5 8 10 1 4 13 8 17 31 7 9 59 34 11 6 8 7 22 3 3 1 10 8 5 32 5 17 13 25 5 6 2 16 11 31 7 12 13 23 7 6 5 -1 7 10 7 9 18 25 17 5 9 18 23 6 36 4 0 30 12 3 -2 15 3 13 13 7 6 9 5 18 12 4 5 14 4 11 16 11 3 5 8 0 4 2 7 8 4 5 6 8 5 -1 12 8 4 10 9 7 4 13 4 4 2 7 8 9 2 2 3 5 9 6 7 4 10 3 7 1 5 2 18 4 10 8 6 4 -7 11 8 7 4 22 25 42 22 4 21 4 34 9 12 10 5 24 5 3 12 5 2 21 6 10 8 4 23 10 2 7 1 0 11 5 21 7 10 17 4 20 6 6 6 22 25 15 3 2 8 1 5 20 7 8 5 14 0 6 32 20 -1 12 18 2 12 9 8 5 -1 9 17 5 2 10 10 0 7 2 15 9 7 19 5 8 11 5 14 6 6 9 18 27 9 11 1 7 10 17 16 4 23 7 8 0 14 15 22 12 8 3 8 5 1 -1 6 12 10 4 10 -2 8 17 18 12 3 6 12 10 5 11 18 21 5 6 10 9 1 4 9 11 2 13 14 6 6 7 16 9 11 7 21 2 6 19 2 52 11 9 1 6 14 35 23 6 64 3 26 1 19 7 5 8 13 3 4 7 7 6 9 1 8 65 15 8 0 8 1 7 6 5 7 6 2 5 -1 25 4 10 6 0 9 57 9 5 5 5 7 11 11 7 7 4 11 11 9 2 -2 5 6 9 5 11 1 4 12 8 6 -2 6 8 4 8 5 9 2 9 17 4 6 5 3 17 25 11 13 3 2 16 17 5 1 9 37 15 12 4 27 20 20 7 1 17 9 11 1 4 4 5 -1 18 7 11 6 7 6 10 9 17 13 40 24 1 5 12 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8 9 4 5 13 7 9 7 17 4 3 5 9 2 0 15</t>
+  </si>
+  <si>
+    <t>7 10 5 4 2 5 4 2 15 -1 7 7 4 3 1 4 5 -2 6 5 6 7 11 1 8 5 2 11 2 2 23 7 4 12 5 -1 5 1 -1 11 14 3 1 16 0 1 3 14 6 4 18 3 4 2 4 3 0 2 10 2 3 4 10 3 3 16 2 11 1 4 2 3 -1 5 2 2 4 1 7 2 1 -1 2 6 7 8 0 4 8 9 2 3 18 -4 8 8 2 1 4 3 3 5 0 7 5 5 37 5 7 11 4 0 9 4 3 7 9 9 -1 5 3 5 1 3 0 -2 5 -1 4 3 6 -2 12 1 8 34 1 14 8 -3 0 4 4 4 7 4 18 6 5 12 0 -2 4 10 5 5 4 2 11 0 -3 3 4 2 3 4 5 2 4 4 9 14 3 4 1 1 10 5 3 4 3 4 3 16 6 -6 4 1 5 4 4 5 -3 3 12 4 2 -1 8 4 2 3 6 3 3 2 7 4 3 4 -2 7 2 10 3 1 3 4 0 3 8 -1 7 4 7 4 4 -2 2 11 0 1 20 -2 14 9 1 2 3 -2 5 25 7 5 18 3 2 3 -1 9 4 2 20 1 4 9 20 -2 8 0 3 -2 3 5 6 1 5 2 1 3 3 4 1 1 4 14 17 0 1 2 10 1 2 2 9 1 -1 0 3 2 5 1 3 3 0 10 0 -1 -1 4 2 6 3 13 32 0 8 5 9 -2 3 -1 9 2 12 4 0 0 0 -3 -8 1 -1 6 16 1 4 17 4 3 8 -1 4 2 3 4 2 4 11 10 2 13 2 3 3 13 2 1 7 0 15 10 18 3 1 9 0 1 3 3 2 7 2 2 5 5 -1 4 2 3 3 2 4 18 0 -3 1 0 7 18 3 2 1 1 7 5 35 3 6 1 2 2 11 4 5 2 0 3 4 4 1 4 5 1 -1 10 -4 1 3 3 1 8 1 3 5 2 46 4 6 1 10 1 -1 2 5 4 0 8 4 4 4 1 4 15 2 5 0 0 7 3 4 2 8 1 3 2 3 5 3 0 4 2 6 4 2 5 2 14 7 4 1 19 3 2 0 1 4 -2 1 6 0 1 27 8 1 4 4 8 0 2 10 1 1 23 38 1 6 9 -1 0 12 -5 6 2 4 7 5 0 -5 6 0 -3 -1 1 10 1 17 4 8 4 4 4 6 4 -1 13 13 3 6 1 4 5 5 7 0 5 3 1 2 4 24 1 4 9 3 12 1 2 2 5 -1 1 7 3 13 1 2 7 2 2 2 2 1 3 11 2 2 3 5 3 2 4 -1 6 34 1 0 -1 -2 6 5 7 13 2 6 2 12 3 -1 4 0 7 4 8 3 9 3 3 1 1 10 2 4 8 1 0 2 4 1 9 4 19 4 12 2 8 4 2 -2 0 0 5 2 11 0 -4 1 3 1 11 5 7 7 5 39 -1 5 4 15 1 1 4 2 5 0 2 5 3 4 1 4 4 4 2 1 15 5 2 2 3 1 1 -3 0 5 -1 5 3 3 10 -2 0 1 0 7 0 23 17 1 0 9 13 3 6 8 11 1 2 2 3 1 5 3 5 7 4 1 -5 11 0 4 6 6 20 -2 2 1 3 4 3 1 -1 7 7 4 4 0 2 2 10 3 1 2 19 0 2 1 2 4 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39 3 6 7 -1 8 4 15 -1 3 5 1 7 12 9 2 4 6 19 0 4 4 6 5 -1 2 4 1</t>
+  </si>
+  <si>
+    <t>10 25 6 6 9 16 10 16 11 9 13 4 5 6 9 5 25 15 26 8 5 1 36 4 11 46 22 16 15 12 9 8 6 47 24 6 21 1 46 24 2 16 3 11 9 6 6 6 7 3 10 7 11 16 16 8 5 6 12 9 5 4 8 6 6 16 9 18 5 37 5 23 14 4 19 18 1 4 9 11 6 11 57 4 3 21 11 9 30 9 17 32 15 5 11 15 11 20 0 12 19 15 12 5 9 9 4 9 1 9 18 2 9 8 1 2 9 4 8 13 6 22 6 3 12 21 8 7 1 17 14 8 11 22 8 1 9 13 9 5 8 3 7 13 6 26 34 7 6 8 15 15 19 11 9 13 9 7 15 5 11 14 4 6 4 8 10 17 4 16 56 16 10 4 6 17 7 14 21 11 6 4 10 9 7 35 6 11 17 9 5 5 6 15 9 10 9 16 -2 7 4 4 28 13 13 15 2 9 15 4 41 9 22 1 15 9 6 9 16 7 0 29 16 37 6 6 19 0 30 6 9 27 12 3 3 1 15 7 8 3 12 7 4 5 72 15 11 7 9 8 -3 5 6 2 1 16 17 7 37 21 9 13 16 9 5 15 6 26 44 28 26 5 32 13 5 11 9 -2 11 3 8 5 8 21 12 20 35 8 23 26 8 11 4 12 -1 16 11 4 29 2 19 12 19 9 9 13 22 11 33 10 3 22 4 85 4 7 7 5 13 5 6 8 18 7 8 10 16 19 6 14 16 27 32 15 19 3 51 20 56 4 7 4 9 8 5 22 6 7 12 8 25 9 7 21 26 9 6 17 16 4 1 6 10 3 8 3 7 11 1 35 5 6 1 7 7 22 13 6 7 8 6 9 2 41 3 24 7 23 6 10 25 8 18 8 5 23 12 21 1 4 15 10 12 23 7 23 16 3 16 32 34 1 7 6 12 1 5 4 28 6 3 2 3 17 8 -2 3 14 10 1 3 41 11 24 20 9 26 13 10 10 18 6 15 62 6 10 10 11 12 3 4 11 5 12 6 14 12 16 4 15 7 34 19 9 22 24 1 19 4 6 8 9 11 20 10 28 11 29 11 11 21 7 14 10 7 10 20 12 -3 23 11 7 2 13 12 6 13 15 5 39 9 6 4 4 26 49 4 11 12 6 11 23 28 1 11 8 1 20 3 15 7 8 6 15 4 10 6 3 3 8 8 17 11 14 19 13 1 11 -1 20 8 4 3 23 9 9 15 6 7 5 10 6 9 8 15 4 39 15 4 10 3 5 10 7 4 7 4 11 15 7 5 6 13 3 11 9 9 11 0 8 7 8 4 8 20 5 8 30 6 9 15 9 2 5 5 29 14 20 9 5 22 5 4 9 23 5 5 2 62 12 8 11 8 15 64 4 13 4 7 18 24 13 17 3 15 -3 7 -5 4 18 20 -1 5 12 16 6 11 17 8 3 9 8 2 10 11 11 16 2 14 19 4 11 6 23 1 9 24 10 4 17 8 11 12 4 14 -5 6 4 4 56 25 2 4 1 5 5 16 3 7 52 6 3 15 2 5 35 7 5 13 23 17 6 2 28 6 32 5 1 18 39 11 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67 71 64</t>
-  </si>
-  <si>
-    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31 26 24</t>
-  </si>
-  <si>
-    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17 23 16 18</t>
-  </si>
-  <si>
-    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56 41 37 47 43 42 45 37 36 42 32</t>
-  </si>
-  <si>
-    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12 10 0 0 0 0 17 9 8 11 0</t>
-  </si>
-  <si>
-    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5 -1 9 0 0 0 0 10 15 0 0</t>
+    <t>17 64 60 63 71 66 62 67 53 64 74 61 65 66 46 66 66 67 49 68 58 41 70 58 60 62 61 66 67 57 66 66 62 63 57 66 69 40 66 67 71 64 63</t>
+  </si>
+  <si>
+    <t>-1 24 6 29 20 25 0 21 15 13 22 14 31 26 6 15 35 24 15 27 5 17 23 15 21 23 0 23 27 5 24 21 19 18 18 21 29 20 20 31 26 24 24</t>
+  </si>
+  <si>
+    <t>19 12 5 15 23 4 15 22 22 21 13 11 31 15 18 20 13 18 7 22 25 16 15 17 23 16 18 20 18</t>
+  </si>
+  <si>
+    <t>45 58 49 63 50 51 58 40 38 42 37 47 51 53 31 44 36 29 45 45 37 46 32 63 38 44 40 47 40 39 44 41 40 62 42 52 43 51 42 54 42 34 43 34 31 55 52 41 32 54 42 37 50 51 45 54 41 51 46 46 46 44 32 42 34 55 55 40 52 37 51 48 47 30 36 61 39 34 50 32 41 46 53 56 39 35 36 44 30 37 32 59 49 47 58 43 59 58 55 44 49 39 33 50 36 38 40 38 49 44 40 52 47 53 41 57 40 37 44 35 46 53 50 65 39 37 46 51 52 56 41 37 47 43 42 45 37 36 42 32 44 63 57 45</t>
+  </si>
+  <si>
+    <t>0 0 0 0 7 0 11 0 0 0 8 0 0 17 0 0 0 0 0 0 0 0 0 0 0 0 12 2 0 0 0 -4 0 0 0 1 0 9 0 0 0 0 0 0 0 9 4 0 0 0 0 67 0 0 3 13 0 32 -3 13 9 19 0 0 0 84 0 7 0 -1 14 20 0 0 0 13 7 0 2 0 0 0 0 -1 0 0 0 0 0 0 0 0 0 17 0 16 0 9 0 0 0 2 0 0 0 0 0 0 0 9 0 0 0 9 0 19 0 0 0 0 0 0 15 11 0 -4 0 0 11 12 10 0 0 0 0 17 9 8 11 0 11 0 9 0</t>
+  </si>
+  <si>
+    <t>0 0 -3 0 1 0 10 0 13 15 0 11 6 5 16 1 0 0 30 0 14 15 7 0 0 0 0 88 0 0 10 0 18 20 19 0 6 0 0 0 12 7 0 0 2 14 6 0 0 0 -4 11 1 0 0 7 0 0 0 0 0 0 12 0 18 4 0 0 8 0 7 12 -1 14 0 0 0 0 0 0 0 16 0 8 0 -4 8 15 0 10 18 0 6 0 0 0 0 0 4 0 0 0 0 0 7 7 0 0 0 0 7 0 0 0 0 0 0 0 0 5 -1 9 0 0 0 0 10 15 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H2">
         <v>10</v>
       </c>
       <c r="I2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="M2">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="N2">
         <v>36</v>
       </c>
       <c r="O2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>20</v>
       </c>
       <c r="Q2">
-        <v>1042</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="D3">
         <v>13</v>
@@ -730,19 +730,19 @@
         <v>49</v>
       </c>
       <c r="F3">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G3">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I3">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J3">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>382</v>
       </c>
       <c r="N3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>16</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="H2">
         <v>13</v>
@@ -964,16 +964,16 @@
         <v>12</v>
       </c>
       <c r="J2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="M2">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="N2">
         <v>38</v>
@@ -985,7 +985,7 @@
         <v>23</v>
       </c>
       <c r="Q2">
-        <v>991</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3">
         <v>65</v>
       </c>
-      <c r="H3">
-        <v>63</v>
-      </c>
       <c r="I3">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J3">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>351</v>
       </c>
       <c r="N3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
+        <v>137</v>
+      </c>
+      <c r="G2">
         <v>134</v>
-      </c>
-      <c r="G2">
-        <v>131</v>
       </c>
       <c r="H2">
         <v>10</v>
@@ -1239,16 +1239,16 @@
         <v>7</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>16</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
